--- a/liensAllUserFR.xlsx
+++ b/liensAllUserFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97675767-546A-4E87-AE9E-8080C245992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC7FE8-7BB0-421D-B626-C285B9573958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57615" yWindow="2715" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
+    <workbookView xWindow="47310" yWindow="2535" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>OrgaApproFR</t>
   </si>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF1096-4B2D-4EE8-BE67-3E14140621C9}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,6 +1085,9 @@
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">

--- a/liensAllUserFR.xlsx
+++ b/liensAllUserFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC7FE8-7BB0-421D-B626-C285B9573958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638E5FD7-74E1-4E3C-AFBD-FCBC50DDA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47310" yWindow="2535" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
+    <workbookView xWindow="58380" yWindow="2880" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
   <si>
     <t>OrgaApproFR</t>
   </si>
@@ -828,7 +828,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,6 +1071,9 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/liensAllUserFR.xlsx
+++ b/liensAllUserFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638E5FD7-74E1-4E3C-AFBD-FCBC50DDA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2333DA1-493D-4ECA-A0A6-513F34332621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="2880" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
+    <workbookView xWindow="33600" yWindow="4350" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
   <si>
     <t>OrgaApproFR</t>
   </si>
@@ -212,9 +212,6 @@
     <t>MarketingFR</t>
   </si>
   <si>
-    <t>Rien pour le moment…</t>
-  </si>
-  <si>
     <t>AchatsFR</t>
   </si>
   <si>
@@ -426,6 +423,15 @@
   </si>
   <si>
     <t>AccessoiresFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens : </t>
+  </si>
+  <si>
+    <t>Rien pour le moment</t>
+  </si>
+  <si>
+    <t>rien</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1079,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,7 +1096,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,514 +1145,560 @@
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>58</v>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/liensAllUserFR.xlsx
+++ b/liensAllUserFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2333DA1-493D-4ECA-A0A6-513F34332621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3F4E6-2511-40D8-BF15-6111BD172491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="4350" windowWidth="21255" windowHeight="17325" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{3C9B261F-8EB9-4C6F-BFE7-C9204175C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>OrgaApproFR</t>
   </si>
@@ -80,36 +80,12 @@
     <t>OutilsFR</t>
   </si>
   <si>
-    <t>Easy-It</t>
-  </si>
-  <si>
-    <t>https://easy-it.kiabi.fr/</t>
-  </si>
-  <si>
     <t>http://wfr616.pc.kiabi.fr/watchdoc/account.asp</t>
   </si>
   <si>
     <t>Watchdoc WFR616</t>
   </si>
   <si>
-    <t>Ressources HumainesFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liens </t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>TalentEd</t>
-  </si>
-  <si>
-    <t>https://talented.gcp.kiabi.pro</t>
-  </si>
-  <si>
     <t>InformatiqueFR</t>
   </si>
   <si>
@@ -336,12 +312,6 @@
   </si>
   <si>
     <t>DecisionnelFR</t>
-  </si>
-  <si>
-    <t>Kiperf</t>
-  </si>
-  <si>
-    <t>https://kiperf.kiabi.pro/</t>
   </si>
   <si>
     <t>microsoft-edge:https://bo.kiabi.fr:8443/BOE/BI</t>
@@ -833,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF1096-4B2D-4EE8-BE67-3E14140621C9}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,795 +880,769 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1706,13 +1650,12 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7C6AA9C3-0628-43A4-AF89-D503EF91DBBF}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{F0D63B50-E1F4-4C89-9FDE-768037DA0E58}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{E8ED9727-BC7E-4380-86CD-41F4FF2F8CA1}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{3266334A-4071-43F8-AF26-72ABB5F6516D}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{E009E5A3-4021-4F88-B0C7-659790E4679A}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{BD912204-2D04-47E8-9BA1-F4D5629F3311}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{FA8E02CA-FDCC-4737-A705-401C0BCA72AD}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{26468D78-3A2B-47FE-ABC1-703D119F9AB2}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{F280572C-158D-4D55-AD21-9FB20E469E71}"/>
-    <hyperlink ref="D46" r:id="rId10" xr:uid="{8CA02391-B216-451B-B6FB-0F0EE1AA21FE}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{E009E5A3-4021-4F88-B0C7-659790E4679A}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{BD912204-2D04-47E8-9BA1-F4D5629F3311}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{FA8E02CA-FDCC-4737-A705-401C0BCA72AD}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{26468D78-3A2B-47FE-ABC1-703D119F9AB2}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{F280572C-158D-4D55-AD21-9FB20E469E71}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{8CA02391-B216-451B-B6FB-0F0EE1AA21FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
